--- a/201904.xlsx
+++ b/201904.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lic/Documents/onedrive/WORK/Recruitment/1_Before/内部岗位调研/岗位/招聘需求/2019/Q1/4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lic/Documents/HR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_4013F084F89F2BB6E5566E60F84830D1C4AB992F" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B2516A1F-E294-DD4E-92E6-B380A6CF1447}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CCE7FB-C480-E146-814B-656C3CDB1067}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="25600" windowHeight="16060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2月'!$A$1:$L$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3月'!$B$2:$Q$72</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4月'!$B$2:$O$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4月'!$B$2:$O$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="391">
   <si>
     <t>事业部</t>
   </si>
@@ -1435,6 +1435,38 @@
   </si>
   <si>
     <t>黄菁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合肥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州/深圳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术中心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王俊峰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2入职/4.152人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.15</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2567,6 +2599,21 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2620,21 +2667,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="93">
@@ -3124,7 +3156,7 @@
     </row>
     <row r="3" spans="1:12" ht="20" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="136" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1"/>
@@ -3152,7 +3184,7 @@
     </row>
     <row r="4" spans="1:12" ht="20" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="132"/>
+      <c r="B4" s="137"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="19" t="s">
@@ -3177,10 +3209,10 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="20" customHeight="1">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="127" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="136" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3209,8 +3241,8 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="20" customHeight="1">
-      <c r="A6" s="123"/>
-      <c r="B6" s="133"/>
+      <c r="A6" s="128"/>
+      <c r="B6" s="138"/>
       <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
@@ -3239,8 +3271,8 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="20" customHeight="1">
-      <c r="A7" s="123"/>
-      <c r="B7" s="133"/>
+      <c r="A7" s="128"/>
+      <c r="B7" s="138"/>
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
@@ -3269,8 +3301,8 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="20" customHeight="1">
-      <c r="A8" s="123"/>
-      <c r="B8" s="133"/>
+      <c r="A8" s="128"/>
+      <c r="B8" s="138"/>
       <c r="C8" s="1" t="s">
         <v>118</v>
       </c>
@@ -3299,8 +3331,8 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="20" customHeight="1">
-      <c r="A9" s="123"/>
-      <c r="B9" s="133"/>
+      <c r="A9" s="128"/>
+      <c r="B9" s="138"/>
       <c r="C9" s="1" t="s">
         <v>119</v>
       </c>
@@ -3329,8 +3361,8 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="20" customHeight="1">
-      <c r="A10" s="123"/>
-      <c r="B10" s="133"/>
+      <c r="A10" s="128"/>
+      <c r="B10" s="138"/>
       <c r="C10" s="1" t="s">
         <v>119</v>
       </c>
@@ -3359,8 +3391,8 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="20" customHeight="1">
-      <c r="A11" s="123"/>
-      <c r="B11" s="133"/>
+      <c r="A11" s="128"/>
+      <c r="B11" s="138"/>
       <c r="C11" s="1" t="s">
         <v>119</v>
       </c>
@@ -3389,8 +3421,8 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="20" customHeight="1">
-      <c r="A12" s="123"/>
-      <c r="B12" s="133"/>
+      <c r="A12" s="128"/>
+      <c r="B12" s="138"/>
       <c r="C12" s="1" t="s">
         <v>125</v>
       </c>
@@ -3419,8 +3451,8 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="20" customHeight="1">
-      <c r="A13" s="123"/>
-      <c r="B13" s="133"/>
+      <c r="A13" s="128"/>
+      <c r="B13" s="138"/>
       <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
@@ -3451,8 +3483,8 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="20" customHeight="1">
-      <c r="A14" s="123"/>
-      <c r="B14" s="133"/>
+      <c r="A14" s="128"/>
+      <c r="B14" s="138"/>
       <c r="C14" s="1" t="s">
         <v>36</v>
       </c>
@@ -3481,8 +3513,8 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="20" customHeight="1">
-      <c r="A15" s="123"/>
-      <c r="B15" s="133"/>
+      <c r="A15" s="128"/>
+      <c r="B15" s="138"/>
       <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
@@ -3511,8 +3543,8 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="20" customHeight="1">
-      <c r="A16" s="123"/>
-      <c r="B16" s="132"/>
+      <c r="A16" s="128"/>
+      <c r="B16" s="137"/>
       <c r="C16" s="1" t="s">
         <v>132</v>
       </c>
@@ -3539,8 +3571,8 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="20" customHeight="1">
-      <c r="A17" s="123"/>
-      <c r="B17" s="128" t="s">
+      <c r="A17" s="128"/>
+      <c r="B17" s="133" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -3569,8 +3601,8 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="20" customHeight="1">
-      <c r="A18" s="124"/>
-      <c r="B18" s="130"/>
+      <c r="A18" s="129"/>
+      <c r="B18" s="135"/>
       <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
@@ -3601,10 +3633,10 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="20" customHeight="1">
-      <c r="A19" s="125" t="s">
+      <c r="A19" s="130" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="128" t="s">
+      <c r="B19" s="133" t="s">
         <v>111</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3633,8 +3665,8 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="20" customHeight="1">
-      <c r="A20" s="126"/>
-      <c r="B20" s="129"/>
+      <c r="A20" s="131"/>
+      <c r="B20" s="134"/>
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
@@ -3663,8 +3695,8 @@
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" ht="20" customHeight="1">
-      <c r="A21" s="126"/>
-      <c r="B21" s="129"/>
+      <c r="A21" s="131"/>
+      <c r="B21" s="134"/>
       <c r="C21" s="3" t="s">
         <v>32</v>
       </c>
@@ -3693,8 +3725,8 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="20" customHeight="1">
-      <c r="A22" s="126"/>
-      <c r="B22" s="129"/>
+      <c r="A22" s="131"/>
+      <c r="B22" s="134"/>
       <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
@@ -3723,8 +3755,8 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="20" customHeight="1">
-      <c r="A23" s="126"/>
-      <c r="B23" s="129"/>
+      <c r="A23" s="131"/>
+      <c r="B23" s="134"/>
       <c r="C23" s="3" t="s">
         <v>32</v>
       </c>
@@ -3753,8 +3785,8 @@
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="20" customHeight="1">
-      <c r="A24" s="126"/>
-      <c r="B24" s="129"/>
+      <c r="A24" s="131"/>
+      <c r="B24" s="134"/>
       <c r="C24" s="3" t="s">
         <v>32</v>
       </c>
@@ -3783,8 +3815,8 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="20" customHeight="1">
-      <c r="A25" s="126"/>
-      <c r="B25" s="130"/>
+      <c r="A25" s="131"/>
+      <c r="B25" s="135"/>
       <c r="C25" s="3" t="s">
         <v>32</v>
       </c>
@@ -3813,7 +3845,7 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="20" customHeight="1">
-      <c r="A26" s="126"/>
+      <c r="A26" s="131"/>
       <c r="B26" s="16" t="s">
         <v>152</v>
       </c>
@@ -3843,8 +3875,8 @@
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:12" ht="20" customHeight="1">
-      <c r="A27" s="126"/>
-      <c r="B27" s="128" t="s">
+      <c r="A27" s="131"/>
+      <c r="B27" s="133" t="s">
         <v>68</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -3875,8 +3907,8 @@
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:12" ht="20" customHeight="1">
-      <c r="A28" s="126"/>
-      <c r="B28" s="129"/>
+      <c r="A28" s="131"/>
+      <c r="B28" s="134"/>
       <c r="C28" s="1" t="s">
         <v>51</v>
       </c>
@@ -3905,8 +3937,8 @@
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:12" ht="20" customHeight="1">
-      <c r="A29" s="126"/>
-      <c r="B29" s="129"/>
+      <c r="A29" s="131"/>
+      <c r="B29" s="134"/>
       <c r="C29" s="1" t="s">
         <v>51</v>
       </c>
@@ -3935,8 +3967,8 @@
       <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:12" ht="20" customHeight="1">
-      <c r="A30" s="126"/>
-      <c r="B30" s="129"/>
+      <c r="A30" s="131"/>
+      <c r="B30" s="134"/>
       <c r="C30" s="1" t="s">
         <v>51</v>
       </c>
@@ -3963,8 +3995,8 @@
       <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12" ht="20" customHeight="1">
-      <c r="A31" s="126"/>
-      <c r="B31" s="129"/>
+      <c r="A31" s="131"/>
+      <c r="B31" s="134"/>
       <c r="C31" s="1" t="s">
         <v>51</v>
       </c>
@@ -3991,8 +4023,8 @@
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:12" ht="20" customHeight="1">
-      <c r="A32" s="126"/>
-      <c r="B32" s="129"/>
+      <c r="A32" s="131"/>
+      <c r="B32" s="134"/>
       <c r="C32" s="17" t="s">
         <v>55</v>
       </c>
@@ -4021,8 +4053,8 @@
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12" ht="20" customHeight="1">
-      <c r="A33" s="126"/>
-      <c r="B33" s="129"/>
+      <c r="A33" s="131"/>
+      <c r="B33" s="134"/>
       <c r="C33" s="17" t="s">
         <v>55</v>
       </c>
@@ -4049,8 +4081,8 @@
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" ht="20" customHeight="1">
-      <c r="A34" s="126"/>
-      <c r="B34" s="129"/>
+      <c r="A34" s="131"/>
+      <c r="B34" s="134"/>
       <c r="C34" s="17" t="s">
         <v>55</v>
       </c>
@@ -4077,8 +4109,8 @@
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" ht="20" customHeight="1">
-      <c r="A35" s="126"/>
-      <c r="B35" s="129"/>
+      <c r="A35" s="131"/>
+      <c r="B35" s="134"/>
       <c r="C35" s="17" t="s">
         <v>55</v>
       </c>
@@ -4105,8 +4137,8 @@
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" ht="20" customHeight="1">
-      <c r="A36" s="126"/>
-      <c r="B36" s="129"/>
+      <c r="A36" s="131"/>
+      <c r="B36" s="134"/>
       <c r="C36" s="17" t="s">
         <v>146</v>
       </c>
@@ -4133,8 +4165,8 @@
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" ht="20" customHeight="1">
-      <c r="A37" s="126"/>
-      <c r="B37" s="129"/>
+      <c r="A37" s="131"/>
+      <c r="B37" s="134"/>
       <c r="C37" s="17" t="s">
         <v>146</v>
       </c>
@@ -4163,8 +4195,8 @@
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:12" ht="20" customHeight="1">
-      <c r="A38" s="127"/>
-      <c r="B38" s="130"/>
+      <c r="A38" s="132"/>
+      <c r="B38" s="135"/>
       <c r="C38" s="17" t="s">
         <v>146</v>
       </c>
@@ -4192,7 +4224,7 @@
     </row>
     <row r="39" spans="1:12" ht="20" customHeight="1">
       <c r="A39" s="14"/>
-      <c r="B39" s="128" t="s">
+      <c r="B39" s="133" t="s">
         <v>71</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -4226,7 +4258,7 @@
     </row>
     <row r="40" spans="1:12" ht="20" customHeight="1">
       <c r="A40" s="5"/>
-      <c r="B40" s="129"/>
+      <c r="B40" s="134"/>
       <c r="C40" s="1" t="s">
         <v>72</v>
       </c>
@@ -4256,7 +4288,7 @@
     </row>
     <row r="41" spans="1:12" ht="20" customHeight="1">
       <c r="A41" s="5"/>
-      <c r="B41" s="129"/>
+      <c r="B41" s="134"/>
       <c r="C41" s="1" t="s">
         <v>72</v>
       </c>
@@ -4286,7 +4318,7 @@
     </row>
     <row r="42" spans="1:12" ht="20" customHeight="1">
       <c r="A42" s="5"/>
-      <c r="B42" s="129"/>
+      <c r="B42" s="134"/>
       <c r="C42" s="1" t="s">
         <v>76</v>
       </c>
@@ -4314,7 +4346,7 @@
     </row>
     <row r="43" spans="1:12" ht="20" customHeight="1">
       <c r="A43" s="5"/>
-      <c r="B43" s="129"/>
+      <c r="B43" s="134"/>
       <c r="C43" s="1" t="s">
         <v>76</v>
       </c>
@@ -4342,7 +4374,7 @@
     </row>
     <row r="44" spans="1:12" ht="20" customHeight="1">
       <c r="A44" s="5"/>
-      <c r="B44" s="129"/>
+      <c r="B44" s="134"/>
       <c r="C44" s="1" t="s">
         <v>76</v>
       </c>
@@ -4370,7 +4402,7 @@
     </row>
     <row r="45" spans="1:12" ht="20" customHeight="1">
       <c r="A45" s="5"/>
-      <c r="B45" s="129"/>
+      <c r="B45" s="134"/>
       <c r="C45" s="1" t="s">
         <v>78</v>
       </c>
@@ -4398,7 +4430,7 @@
     </row>
     <row r="46" spans="1:12" ht="20" customHeight="1">
       <c r="A46" s="5"/>
-      <c r="B46" s="129"/>
+      <c r="B46" s="134"/>
       <c r="C46" s="1" t="s">
         <v>78</v>
       </c>
@@ -4426,7 +4458,7 @@
     </row>
     <row r="47" spans="1:12" ht="20" customHeight="1">
       <c r="A47" s="5"/>
-      <c r="B47" s="129"/>
+      <c r="B47" s="134"/>
       <c r="C47" s="5" t="s">
         <v>78</v>
       </c>
@@ -4454,7 +4486,7 @@
     </row>
     <row r="48" spans="1:12" ht="20" customHeight="1">
       <c r="A48" s="5"/>
-      <c r="B48" s="129"/>
+      <c r="B48" s="134"/>
       <c r="C48" s="5" t="s">
         <v>78</v>
       </c>
@@ -4486,7 +4518,7 @@
     </row>
     <row r="49" spans="1:12" ht="20" customHeight="1">
       <c r="A49" s="5"/>
-      <c r="B49" s="129"/>
+      <c r="B49" s="134"/>
       <c r="C49" s="5" t="s">
         <v>78</v>
       </c>
@@ -4518,7 +4550,7 @@
       <c r="A50" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B50" s="129"/>
+      <c r="B50" s="134"/>
       <c r="C50" s="5" t="s">
         <v>78</v>
       </c>
@@ -4550,7 +4582,7 @@
       <c r="A51" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B51" s="129"/>
+      <c r="B51" s="134"/>
       <c r="C51" s="5" t="s">
         <v>88</v>
       </c>
@@ -4582,7 +4614,7 @@
     </row>
     <row r="52" spans="1:12" ht="20" customHeight="1">
       <c r="A52" s="5"/>
-      <c r="B52" s="129"/>
+      <c r="B52" s="134"/>
       <c r="C52" s="1" t="s">
         <v>88</v>
       </c>
@@ -4612,7 +4644,7 @@
     </row>
     <row r="53" spans="1:12" ht="20" customHeight="1">
       <c r="A53" s="5"/>
-      <c r="B53" s="129"/>
+      <c r="B53" s="134"/>
       <c r="C53" s="1" t="s">
         <v>88</v>
       </c>
@@ -4642,7 +4674,7 @@
     </row>
     <row r="54" spans="1:12" ht="20" customHeight="1">
       <c r="A54" s="5"/>
-      <c r="B54" s="129"/>
+      <c r="B54" s="134"/>
       <c r="C54" s="1" t="s">
         <v>88</v>
       </c>
@@ -4672,7 +4704,7 @@
     </row>
     <row r="55" spans="1:12" ht="20" customHeight="1">
       <c r="A55" s="5"/>
-      <c r="B55" s="129"/>
+      <c r="B55" s="134"/>
       <c r="C55" s="1" t="s">
         <v>88</v>
       </c>
@@ -4702,7 +4734,7 @@
     </row>
     <row r="56" spans="1:12" ht="20" customHeight="1">
       <c r="A56" s="5"/>
-      <c r="B56" s="130"/>
+      <c r="B56" s="135"/>
       <c r="C56" s="1" t="s">
         <v>96</v>
       </c>
@@ -4838,7 +4870,7 @@
     </row>
     <row r="3" spans="1:14" ht="19">
       <c r="A3" s="43"/>
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="140" t="s">
         <v>220</v>
       </c>
       <c r="C3" s="33">
@@ -4873,7 +4905,7 @@
       <c r="N3" s="28"/>
     </row>
     <row r="4" spans="1:14" ht="19">
-      <c r="B4" s="135"/>
+      <c r="B4" s="140"/>
       <c r="C4" s="33">
         <v>43535</v>
       </c>
@@ -4908,7 +4940,7 @@
       <c r="N4" s="25"/>
     </row>
     <row r="5" spans="1:14" ht="19">
-      <c r="B5" s="135"/>
+      <c r="B5" s="140"/>
       <c r="C5" s="33">
         <v>43528</v>
       </c>
@@ -4943,7 +4975,7 @@
       <c r="N5" s="28"/>
     </row>
     <row r="6" spans="1:14" ht="19">
-      <c r="B6" s="135"/>
+      <c r="B6" s="140"/>
       <c r="C6" s="33">
         <v>43528</v>
       </c>
@@ -4978,7 +5010,7 @@
       <c r="N6" s="28"/>
     </row>
     <row r="7" spans="1:14" ht="19">
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="140" t="s">
         <v>111</v>
       </c>
       <c r="C7" s="33">
@@ -5013,7 +5045,7 @@
       <c r="N7" s="28"/>
     </row>
     <row r="8" spans="1:14" ht="19">
-      <c r="B8" s="135"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="33">
         <v>43528</v>
       </c>
@@ -5048,7 +5080,7 @@
       <c r="N8" s="28"/>
     </row>
     <row r="9" spans="1:14" ht="19">
-      <c r="B9" s="135"/>
+      <c r="B9" s="140"/>
       <c r="C9" s="33">
         <v>43528</v>
       </c>
@@ -5086,7 +5118,7 @@
       <c r="A10" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="B10" s="135"/>
+      <c r="B10" s="140"/>
       <c r="C10" s="33">
         <v>43528</v>
       </c>
@@ -5159,7 +5191,7 @@
       <c r="N11" s="39"/>
     </row>
     <row r="12" spans="1:14" ht="19">
-      <c r="B12" s="135" t="s">
+      <c r="B12" s="140" t="s">
         <v>219</v>
       </c>
       <c r="C12" s="33">
@@ -5194,7 +5226,7 @@
       <c r="N12" s="39"/>
     </row>
     <row r="13" spans="1:14" ht="19">
-      <c r="B13" s="135"/>
+      <c r="B13" s="140"/>
       <c r="C13" s="33">
         <v>43528</v>
       </c>
@@ -5227,7 +5259,7 @@
       <c r="N13" s="39"/>
     </row>
     <row r="14" spans="1:14" ht="19">
-      <c r="B14" s="135"/>
+      <c r="B14" s="140"/>
       <c r="C14" s="33">
         <v>43543</v>
       </c>
@@ -5260,7 +5292,7 @@
       <c r="N14" s="39"/>
     </row>
     <row r="15" spans="1:14" ht="19">
-      <c r="B15" s="135" t="s">
+      <c r="B15" s="140" t="s">
         <v>170</v>
       </c>
       <c r="C15" s="33">
@@ -5300,7 +5332,7 @@
       <c r="A16" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="135"/>
+      <c r="B16" s="140"/>
       <c r="C16" s="33">
         <v>43528</v>
       </c>
@@ -5336,7 +5368,7 @@
       <c r="A17" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="135"/>
+      <c r="B17" s="140"/>
       <c r="C17" s="33">
         <v>43528</v>
       </c>
@@ -5372,7 +5404,7 @@
       <c r="A18" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="B18" s="135"/>
+      <c r="B18" s="140"/>
       <c r="C18" s="33">
         <v>43528</v>
       </c>
@@ -5405,7 +5437,7 @@
       <c r="N18" s="39"/>
     </row>
     <row r="19" spans="1:14" ht="19">
-      <c r="B19" s="135"/>
+      <c r="B19" s="140"/>
       <c r="C19" s="33">
         <v>43528</v>
       </c>
@@ -5440,7 +5472,7 @@
       <c r="N19" s="28"/>
     </row>
     <row r="20" spans="1:14" ht="19">
-      <c r="B20" s="135"/>
+      <c r="B20" s="140"/>
       <c r="C20" s="33">
         <v>43528</v>
       </c>
@@ -5475,7 +5507,7 @@
       <c r="N20" s="28"/>
     </row>
     <row r="21" spans="1:14" ht="19">
-      <c r="B21" s="135"/>
+      <c r="B21" s="140"/>
       <c r="C21" s="33">
         <v>43528</v>
       </c>
@@ -5511,13 +5543,13 @@
     </row>
     <row r="22" spans="1:14" ht="18">
       <c r="B22" s="44"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
       <c r="J22" s="41">
         <f>SUM(J3:J21)</f>
         <v>25</v>
@@ -8945,18 +8977,18 @@
       </c>
     </row>
     <row r="72" spans="2:17" ht="20" customHeight="1" thickBot="1">
-      <c r="B72" s="136" t="s">
+      <c r="B72" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="137"/>
-      <c r="D72" s="137"/>
-      <c r="E72" s="137"/>
-      <c r="F72" s="137"/>
-      <c r="G72" s="137"/>
-      <c r="H72" s="137"/>
-      <c r="I72" s="137"/>
-      <c r="J72" s="137"/>
-      <c r="K72" s="137"/>
+      <c r="C72" s="142"/>
+      <c r="D72" s="142"/>
+      <c r="E72" s="142"/>
+      <c r="F72" s="142"/>
+      <c r="G72" s="142"/>
+      <c r="H72" s="142"/>
+      <c r="I72" s="142"/>
+      <c r="J72" s="142"/>
+      <c r="K72" s="142"/>
       <c r="L72" s="45">
         <f>SUM(L3:L71)</f>
         <v>84</v>
@@ -8993,13 +9025,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:O45"/>
+  <dimension ref="B1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:N13"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -9067,7 +9099,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="20" hidden="1" customHeight="1">
+    <row r="3" spans="2:15" ht="20" customHeight="1">
       <c r="B3" s="99"/>
       <c r="C3" s="80" t="s">
         <v>17</v>
@@ -9102,7 +9134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="20" hidden="1" customHeight="1">
+    <row r="4" spans="2:15" ht="20" customHeight="1">
       <c r="B4" s="62"/>
       <c r="C4" s="63" t="s">
         <v>17</v>
@@ -9137,7 +9169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="20" hidden="1" customHeight="1">
+    <row r="5" spans="2:15" ht="20" customHeight="1">
       <c r="B5" s="90" t="s">
         <v>154</v>
       </c>
@@ -9174,7 +9206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="20" hidden="1" customHeight="1">
+    <row r="6" spans="2:15" ht="20" customHeight="1">
       <c r="B6" s="62" t="s">
         <v>153</v>
       </c>
@@ -9209,11 +9241,11 @@
       <c r="M6" s="89"/>
       <c r="N6" s="28"/>
       <c r="O6" s="74">
-        <f t="shared" ref="O6:O44" si="1">J6-M6</f>
+        <f t="shared" ref="O6:O50" si="1">J6-M6</f>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="20" hidden="1" customHeight="1">
+    <row r="7" spans="2:15" ht="20" customHeight="1">
       <c r="B7" s="104" t="s">
         <v>153</v>
       </c>
@@ -9295,7 +9327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="20" hidden="1" customHeight="1">
+    <row r="9" spans="2:15" ht="20" customHeight="1">
       <c r="B9" s="99" t="s">
         <v>153</v>
       </c>
@@ -9336,7 +9368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="20" hidden="1" customHeight="1">
+    <row r="10" spans="2:15" ht="20" customHeight="1">
       <c r="B10" s="62" t="s">
         <v>291</v>
       </c>
@@ -9377,7 +9409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="20" hidden="1" customHeight="1">
+    <row r="11" spans="2:15" ht="20" customHeight="1">
       <c r="B11" s="62" t="s">
         <v>291</v>
       </c>
@@ -9422,7 +9454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="20" hidden="1" customHeight="1">
+    <row r="12" spans="2:15" ht="20" customHeight="1">
       <c r="B12" s="62" t="s">
         <v>291</v>
       </c>
@@ -9469,7 +9501,7 @@
     </row>
     <row r="13" spans="2:15" ht="20" customHeight="1">
       <c r="B13" s="62" t="s">
-        <v>377</v>
+        <v>291</v>
       </c>
       <c r="C13" s="63" t="s">
         <v>28</v>
@@ -9478,28 +9510,28 @@
         <v>43528</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>36</v>
+        <v>385</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>37</v>
+        <v>386</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="63" t="s">
-        <v>380</v>
+        <v>110</v>
       </c>
       <c r="I13" s="63" t="s">
-        <v>46</v>
+        <v>387</v>
       </c>
       <c r="J13" s="27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K13" s="63" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="L13" s="63" t="s">
-        <v>371</v>
+        <v>114</v>
       </c>
       <c r="M13" s="26">
         <v>1</v>
@@ -9507,20 +9539,17 @@
       <c r="N13" s="63" t="s">
         <v>369</v>
       </c>
-      <c r="O13" s="74">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
-      <c r="B14" s="65" t="s">
-        <v>375</v>
+      <c r="O13" s="74"/>
+    </row>
+    <row r="14" spans="2:15" ht="20" customHeight="1">
+      <c r="B14" s="62" t="s">
+        <v>377</v>
       </c>
       <c r="C14" s="63" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="33">
-        <v>43553</v>
+        <v>43528</v>
       </c>
       <c r="E14" s="63" t="s">
         <v>36</v>
@@ -9529,95 +9558,95 @@
         <v>37</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>347</v>
+        <v>40</v>
       </c>
       <c r="H14" s="63" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I14" s="63" t="s">
         <v>46</v>
       </c>
       <c r="J14" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K14" s="63" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="L14" s="63" t="s">
         <v>371</v>
       </c>
-      <c r="M14" s="26"/>
-      <c r="N14" s="63"/>
+      <c r="M14" s="26">
+        <v>4</v>
+      </c>
+      <c r="N14" s="63" t="s">
+        <v>388</v>
+      </c>
       <c r="O14" s="74">
-        <f t="shared" ref="O14" si="3">J14-M14</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" s="66" customFormat="1" ht="20" hidden="1" customHeight="1">
-      <c r="B15" s="65" t="s">
-        <v>291</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="20" customHeight="1">
+      <c r="B15" s="62"/>
       <c r="C15" s="63" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="33">
-        <v>43553</v>
+        <v>43564</v>
       </c>
       <c r="E15" s="63" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="63" t="s">
-        <v>372</v>
+        <v>37</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>349</v>
+        <v>40</v>
       </c>
       <c r="H15" s="63" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="I15" s="63" t="s">
-        <v>316</v>
+        <v>46</v>
       </c>
       <c r="J15" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" s="63" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="L15" s="63" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="M15" s="26"/>
       <c r="N15" s="63"/>
       <c r="O15" s="74">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" s="66" customFormat="1" ht="20" hidden="1" customHeight="1">
-      <c r="B16" s="65" t="s">
-        <v>172</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="20" customHeight="1">
+      <c r="B16" s="62"/>
       <c r="C16" s="63" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="33">
-        <v>43535</v>
+        <v>43564</v>
       </c>
       <c r="E16" s="63" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="F16" s="63" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>306</v>
+        <v>40</v>
       </c>
       <c r="H16" s="63" t="s">
-        <v>110</v>
+        <v>383</v>
       </c>
       <c r="I16" s="63" t="s">
-        <v>307</v>
+        <v>46</v>
       </c>
       <c r="J16" s="27">
         <v>1</v>
@@ -9630,238 +9659,223 @@
       </c>
       <c r="M16" s="26"/>
       <c r="N16" s="63"/>
-      <c r="O16" s="74">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" s="66" customFormat="1" ht="20" hidden="1" customHeight="1">
-      <c r="B17" s="65"/>
+      <c r="O16" s="74"/>
+    </row>
+    <row r="17" spans="2:15" ht="20" customHeight="1">
+      <c r="B17" s="62"/>
       <c r="C17" s="63" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="33">
-        <v>43553</v>
+        <v>43564</v>
       </c>
       <c r="E17" s="63" t="s">
-        <v>318</v>
-      </c>
-      <c r="F17" s="63"/>
+        <v>36</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>37</v>
+      </c>
       <c r="G17" s="23" t="s">
-        <v>319</v>
+        <v>40</v>
       </c>
       <c r="H17" s="63" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="I17" s="63" t="s">
-        <v>320</v>
+        <v>46</v>
       </c>
       <c r="J17" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" s="63" t="s">
         <v>278</v>
       </c>
       <c r="L17" s="63" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="M17" s="26"/>
       <c r="N17" s="63"/>
-      <c r="O17" s="74">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
-      <c r="B18" s="65" t="s">
-        <v>346</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>256</v>
+      <c r="O17" s="74"/>
+    </row>
+    <row r="18" spans="2:15" ht="20" customHeight="1">
+      <c r="B18" s="62"/>
+      <c r="C18" s="63" t="s">
+        <v>28</v>
       </c>
       <c r="D18" s="33">
-        <v>43543</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="56" t="s">
-        <v>207</v>
-      </c>
-      <c r="G18" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="56" t="s">
-        <v>350</v>
-      </c>
-      <c r="I18" s="56" t="s">
-        <v>208</v>
-      </c>
-      <c r="J18" s="58">
-        <v>1</v>
-      </c>
-      <c r="K18" s="56" t="s">
-        <v>25</v>
+        <v>43564</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="63" t="s">
+        <v>389</v>
+      </c>
+      <c r="I18" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="27">
+        <v>1</v>
+      </c>
+      <c r="K18" s="63" t="s">
+        <v>278</v>
       </c>
       <c r="L18" s="63" t="s">
-        <v>342</v>
-      </c>
-      <c r="M18" s="59"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="74">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="M18" s="26"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="74"/>
     </row>
     <row r="19" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
       <c r="B19" s="65" t="s">
-        <v>382</v>
-      </c>
-      <c r="C19" s="95" t="s">
-        <v>256</v>
-      </c>
-      <c r="D19" s="91">
-        <v>43543</v>
-      </c>
-      <c r="E19" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="96" t="s">
-        <v>207</v>
-      </c>
-      <c r="G19" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="96" t="s">
-        <v>351</v>
-      </c>
-      <c r="I19" s="96" t="s">
-        <v>208</v>
-      </c>
-      <c r="J19" s="98">
-        <v>1</v>
-      </c>
-      <c r="K19" s="96" t="s">
-        <v>278</v>
-      </c>
-      <c r="L19" s="56" t="s">
-        <v>345</v>
-      </c>
-      <c r="M19" s="59"/>
-      <c r="N19" s="56"/>
+        <v>375</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="33">
+        <v>43553</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="H19" s="63" t="s">
+        <v>379</v>
+      </c>
+      <c r="I19" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="27">
+        <v>1</v>
+      </c>
+      <c r="K19" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" s="63" t="s">
+        <v>371</v>
+      </c>
+      <c r="M19" s="26"/>
+      <c r="N19" s="63"/>
       <c r="O19" s="74">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" s="66" customFormat="1" ht="20" hidden="1" customHeight="1">
-      <c r="B20" s="117" t="s">
-        <v>339</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>257</v>
+        <f t="shared" ref="O19" si="3">J19-M19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
+      <c r="B20" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>28</v>
       </c>
       <c r="D20" s="33">
-        <v>43528</v>
+        <v>43553</v>
       </c>
       <c r="E20" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="63"/>
+        <v>36</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>372</v>
+      </c>
       <c r="G20" s="23" t="s">
-        <v>34</v>
+        <v>349</v>
       </c>
       <c r="H20" s="63" t="s">
-        <v>9</v>
+        <v>348</v>
       </c>
       <c r="I20" s="63" t="s">
-        <v>62</v>
+        <v>316</v>
       </c>
       <c r="J20" s="27">
         <v>1</v>
       </c>
       <c r="K20" s="63" t="s">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="L20" s="63" t="s">
-        <v>343</v>
-      </c>
-      <c r="M20" s="89"/>
+        <v>128</v>
+      </c>
+      <c r="M20" s="26"/>
       <c r="N20" s="63"/>
       <c r="O20" s="74">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:15" s="66" customFormat="1" ht="20" hidden="1" customHeight="1">
-      <c r="B21" s="117" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>257</v>
+    <row r="21" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
+      <c r="B21" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>28</v>
       </c>
       <c r="D21" s="33">
-        <v>43528</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>32</v>
+        <v>43535</v>
+      </c>
+      <c r="E21" s="63" t="s">
+        <v>118</v>
       </c>
       <c r="F21" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="H21" s="63" t="s">
         <v>110</v>
       </c>
       <c r="I21" s="63" t="s">
-        <v>64</v>
+        <v>307</v>
       </c>
       <c r="J21" s="27">
         <v>1</v>
       </c>
-      <c r="K21" s="23" t="s">
-        <v>25</v>
+      <c r="K21" s="63" t="s">
+        <v>278</v>
       </c>
       <c r="L21" s="63" t="s">
-        <v>370</v>
-      </c>
-      <c r="M21" s="89">
-        <v>1</v>
-      </c>
-      <c r="N21" s="63" t="s">
-        <v>361</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="M21" s="26"/>
+      <c r="N21" s="63"/>
       <c r="O21" s="74">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" s="66" customFormat="1" ht="20" hidden="1" customHeight="1">
-      <c r="B22" s="117" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>257</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
+      <c r="B22" s="65"/>
+      <c r="C22" s="63" t="s">
+        <v>28</v>
       </c>
       <c r="D22" s="33">
-        <v>43558</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>357</v>
+        <v>43553</v>
+      </c>
+      <c r="E22" s="63" t="s">
+        <v>318</v>
+      </c>
+      <c r="F22" s="63"/>
+      <c r="G22" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="H22" s="63" t="s">
+        <v>9</v>
       </c>
       <c r="I22" s="63" t="s">
-        <v>64</v>
+        <v>320</v>
       </c>
       <c r="J22" s="27">
         <v>1</v>
@@ -9870,43 +9884,37 @@
         <v>278</v>
       </c>
       <c r="L22" s="63" t="s">
-        <v>359</v>
-      </c>
-      <c r="M22" s="89">
-        <v>1</v>
-      </c>
-      <c r="N22" s="63" t="s">
-        <v>356</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="M22" s="26"/>
+      <c r="N22" s="63"/>
       <c r="O22" s="74">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" s="66" customFormat="1" ht="20" hidden="1" customHeight="1">
-      <c r="B23" s="117" t="s">
-        <v>217</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>257</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
+      <c r="B23" s="65"/>
+      <c r="C23" s="63" t="s">
+        <v>28</v>
       </c>
       <c r="D23" s="33">
-        <v>43558</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>32</v>
+        <v>43567</v>
+      </c>
+      <c r="E23" s="63" t="s">
+        <v>385</v>
       </c>
       <c r="F23" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>358</v>
+        <v>112</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="H23" s="63" t="s">
+        <v>9</v>
       </c>
       <c r="I23" s="63" t="s">
-        <v>64</v>
+        <v>307</v>
       </c>
       <c r="J23" s="27">
         <v>1</v>
@@ -9915,328 +9923,338 @@
         <v>278</v>
       </c>
       <c r="L23" s="63" t="s">
-        <v>359</v>
-      </c>
-      <c r="M23" s="89"/>
-      <c r="N23" s="63"/>
+        <v>128</v>
+      </c>
+      <c r="M23" s="26"/>
+      <c r="N23" s="63" t="s">
+        <v>317</v>
+      </c>
       <c r="O23" s="74">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:15" s="66" customFormat="1" ht="20" hidden="1" customHeight="1">
-      <c r="B24" s="117"/>
-      <c r="C24" s="109" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="106">
-        <v>43528</v>
-      </c>
-      <c r="E24" s="109" t="s">
-        <v>301</v>
-      </c>
-      <c r="F24" s="109" t="s">
-        <v>303</v>
-      </c>
-      <c r="G24" s="108" t="s">
-        <v>302</v>
-      </c>
-      <c r="H24" s="109" t="s">
-        <v>110</v>
-      </c>
-      <c r="I24" s="105" t="s">
-        <v>305</v>
-      </c>
-      <c r="J24" s="108">
-        <v>1</v>
-      </c>
-      <c r="K24" s="107" t="s">
+    <row r="24" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
+      <c r="B24" s="65" t="s">
+        <v>346</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24" s="33">
+        <v>43543</v>
+      </c>
+      <c r="E24" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="I24" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" s="58">
+        <v>1</v>
+      </c>
+      <c r="K24" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="M24" s="26"/>
-      <c r="N24" s="63"/>
+      <c r="L24" s="63" t="s">
+        <v>342</v>
+      </c>
+      <c r="M24" s="59"/>
+      <c r="N24" s="56"/>
       <c r="O24" s="74">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:15" s="66" customFormat="1" ht="20" hidden="1" customHeight="1">
-      <c r="B25" s="117"/>
-      <c r="C25" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="33">
-        <v>43528</v>
-      </c>
-      <c r="E25" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="63" t="s">
-        <v>304</v>
-      </c>
-      <c r="G25" s="23" t="s">
+    <row r="25" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
+      <c r="B25" s="65" t="s">
+        <v>382</v>
+      </c>
+      <c r="C25" s="95" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" s="91">
+        <v>43543</v>
+      </c>
+      <c r="E25" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="96" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="J25" s="27">
-        <v>1</v>
-      </c>
-      <c r="K25" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="L25" s="109" t="s">
-        <v>114</v>
-      </c>
-      <c r="M25" s="89"/>
-      <c r="N25" s="26"/>
+      <c r="H25" s="96" t="s">
+        <v>351</v>
+      </c>
+      <c r="I25" s="96" t="s">
+        <v>208</v>
+      </c>
+      <c r="J25" s="98">
+        <v>1</v>
+      </c>
+      <c r="K25" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="L25" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="M25" s="59"/>
+      <c r="N25" s="56"/>
       <c r="O25" s="74">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:15" s="66" customFormat="1" ht="20" hidden="1" customHeight="1">
+    <row r="26" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
       <c r="B26" s="117" t="s">
-        <v>172</v>
+        <v>339</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D26" s="33">
-        <v>43549</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="H26" s="26" t="s">
+        <v>43528</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="63"/>
+      <c r="G26" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="27">
+        <v>1</v>
+      </c>
+      <c r="K26" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="63" t="s">
+        <v>343</v>
+      </c>
+      <c r="M26" s="89"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
+      <c r="B27" s="117" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D27" s="33">
+        <v>43528</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="I26" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="J26" s="26">
-        <v>1</v>
-      </c>
-      <c r="K26" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="L26" s="26" t="s">
+      <c r="I27" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="27">
+        <v>1</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="63" t="s">
         <v>370</v>
       </c>
-      <c r="M26" s="89">
-        <v>1</v>
-      </c>
-      <c r="N26" s="26">
-        <v>4.8</v>
-      </c>
-      <c r="O26" s="74">
-        <f>J26-M26</f>
+      <c r="M27" s="89">
+        <v>1</v>
+      </c>
+      <c r="N27" s="63" t="s">
+        <v>361</v>
+      </c>
+      <c r="O27" s="74">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:15" s="66" customFormat="1" ht="20" hidden="1" customHeight="1">
-      <c r="B27" s="117" t="s">
-        <v>338</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="D27" s="33">
-        <v>43556</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="J27" s="26">
-        <v>1</v>
-      </c>
-      <c r="K27" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="L27" s="26" t="s">
-        <v>370</v>
-      </c>
-      <c r="M27" s="89">
-        <v>1</v>
-      </c>
-      <c r="N27" s="26">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O27" s="74">
-        <f>J27-M27</f>
+    <row r="28" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
+      <c r="B28" s="117" t="s">
+        <v>217</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" s="33">
+        <v>43558</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="I28" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="27">
+        <v>1</v>
+      </c>
+      <c r="K28" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="L28" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="M28" s="89">
+        <v>1</v>
+      </c>
+      <c r="N28" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="O28" s="74">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:15" s="66" customFormat="1" ht="20" hidden="1" customHeight="1">
-      <c r="B28" s="118" t="s">
+    <row r="29" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
+      <c r="B29" s="117" t="s">
         <v>217</v>
       </c>
-      <c r="C28" s="110" t="s">
-        <v>255</v>
-      </c>
-      <c r="D28" s="100">
-        <v>43528</v>
-      </c>
-      <c r="E28" s="80" t="s">
+      <c r="C29" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D29" s="33">
+        <v>43558</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="80"/>
-      <c r="G28" s="102" t="s">
-        <v>331</v>
-      </c>
-      <c r="H28" s="102" t="s">
-        <v>329</v>
-      </c>
-      <c r="I28" s="102" t="s">
-        <v>186</v>
-      </c>
-      <c r="J28" s="103">
-        <v>1</v>
-      </c>
-      <c r="K28" s="102" t="s">
-        <v>25</v>
-      </c>
-      <c r="L28" s="110" t="s">
-        <v>334</v>
-      </c>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="74">
-        <f t="shared" ref="O28" si="4">J28-M28</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
-      <c r="B29" s="119" t="s">
-        <v>217</v>
-      </c>
-      <c r="C29" s="95" t="s">
-        <v>255</v>
-      </c>
-      <c r="D29" s="91">
-        <v>43558</v>
-      </c>
-      <c r="E29" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="79"/>
-      <c r="G29" s="93" t="s">
-        <v>331</v>
-      </c>
-      <c r="H29" s="93" t="s">
-        <v>376</v>
-      </c>
-      <c r="I29" s="93" t="s">
-        <v>186</v>
-      </c>
-      <c r="J29" s="94">
-        <v>1</v>
-      </c>
-      <c r="K29" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29" s="95" t="s">
-        <v>378</v>
-      </c>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
+      <c r="G29" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="I29" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="27">
+        <v>1</v>
+      </c>
+      <c r="K29" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="L29" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="M29" s="89"/>
+      <c r="N29" s="63"/>
       <c r="O29" s="74">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
-      <c r="B30" s="117" t="s">
-        <v>338</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="D30" s="33">
-        <v>43556</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>374</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="H30" s="26" t="s">
-        <v>325</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="J30" s="26">
-        <v>2</v>
-      </c>
-      <c r="K30" s="23" t="s">
-        <v>115</v>
+      <c r="B30" s="117"/>
+      <c r="C30" s="109" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="106">
+        <v>43528</v>
+      </c>
+      <c r="E30" s="109" t="s">
+        <v>301</v>
+      </c>
+      <c r="F30" s="109" t="s">
+        <v>303</v>
+      </c>
+      <c r="G30" s="108" t="s">
+        <v>302</v>
+      </c>
+      <c r="H30" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="J30" s="108">
+        <v>1</v>
+      </c>
+      <c r="K30" s="107" t="s">
+        <v>25</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="M30" s="89"/>
-      <c r="N30" s="26"/>
+        <v>114</v>
+      </c>
+      <c r="M30" s="26"/>
+      <c r="N30" s="63"/>
       <c r="O30" s="74">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" s="66" customFormat="1" ht="20" hidden="1" customHeight="1">
-      <c r="B31" s="117" t="s">
-        <v>217</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
+      <c r="B31" s="117"/>
       <c r="C31" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="D31" s="100">
-        <v>43559</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110" t="s">
-        <v>184</v>
-      </c>
-      <c r="H31" s="110" t="s">
-        <v>362</v>
-      </c>
-      <c r="I31" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="J31" s="110">
-        <v>1</v>
-      </c>
-      <c r="K31" s="102" t="s">
-        <v>278</v>
-      </c>
-      <c r="L31" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="33">
+        <v>43528</v>
+      </c>
+      <c r="E31" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" s="27">
+        <v>1</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="109" t="s">
         <v>114</v>
       </c>
       <c r="M31" s="89"/>
@@ -10246,150 +10264,162 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:15" s="66" customFormat="1" ht="20" hidden="1" customHeight="1">
-      <c r="B32" s="120"/>
+    <row r="32" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
+      <c r="B32" s="117" t="s">
+        <v>172</v>
+      </c>
       <c r="C32" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="D32" s="100"/>
-      <c r="E32" s="110" t="s">
-        <v>365</v>
-      </c>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110" t="s">
-        <v>314</v>
-      </c>
-      <c r="H32" s="110" t="s">
-        <v>366</v>
-      </c>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110">
-        <v>1</v>
-      </c>
-      <c r="K32" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="L32" s="110" t="s">
-        <v>128</v>
+      <c r="D32" s="33">
+        <v>43549</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="J32" s="26">
+        <v>1</v>
+      </c>
+      <c r="K32" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="L32" s="26" t="s">
+        <v>370</v>
       </c>
       <c r="M32" s="89">
         <v>1</v>
       </c>
       <c r="N32" s="26">
-        <v>4.1500000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="O32" s="74">
-        <f t="shared" si="1"/>
+        <f>J32-M32</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:15" s="66" customFormat="1" ht="20" hidden="1" customHeight="1">
-      <c r="B33" s="120"/>
+    <row r="33" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
+      <c r="B33" s="117" t="s">
+        <v>338</v>
+      </c>
       <c r="C33" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="D33" s="100"/>
-      <c r="E33" s="110" t="s">
-        <v>365</v>
-      </c>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110" t="s">
+      <c r="D33" s="33">
+        <v>43556</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="H33" s="110" t="s">
-        <v>366</v>
-      </c>
-      <c r="I33" s="110"/>
-      <c r="J33" s="110">
-        <v>1</v>
-      </c>
-      <c r="K33" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="L33" s="110" t="s">
-        <v>128</v>
+      <c r="H33" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="J33" s="26">
+        <v>1</v>
+      </c>
+      <c r="K33" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="L33" s="26" t="s">
+        <v>370</v>
       </c>
       <c r="M33" s="89">
         <v>1</v>
       </c>
       <c r="N33" s="26">
-        <v>4.1900000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="O33" s="74">
-        <f t="shared" si="1"/>
+        <f>J33-M33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:15" s="66" customFormat="1" ht="20" hidden="1" customHeight="1">
-      <c r="B34" s="113" t="s">
-        <v>153</v>
+    <row r="34" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
+      <c r="B34" s="118" t="s">
+        <v>217</v>
       </c>
       <c r="C34" s="110" t="s">
-        <v>170</v>
+        <v>255</v>
       </c>
       <c r="D34" s="100">
         <v>43528</v>
       </c>
       <c r="E34" s="80" t="s">
-        <v>251</v>
-      </c>
-      <c r="F34" s="80" t="s">
-        <v>73</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F34" s="80"/>
       <c r="G34" s="102" t="s">
-        <v>74</v>
+        <v>331</v>
       </c>
       <c r="H34" s="102" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" s="80" t="s">
-        <v>98</v>
+        <v>329</v>
+      </c>
+      <c r="I34" s="102" t="s">
+        <v>186</v>
       </c>
       <c r="J34" s="103">
         <v>1</v>
       </c>
       <c r="K34" s="102" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="L34" s="110" t="s">
-        <v>27</v>
+        <v>334</v>
       </c>
       <c r="M34" s="26"/>
       <c r="N34" s="26"/>
       <c r="O34" s="74">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" s="66" customFormat="1" ht="20" hidden="1" customHeight="1">
-      <c r="B35" s="65"/>
-      <c r="C35" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="D35" s="33">
-        <v>43528</v>
-      </c>
-      <c r="E35" s="63" t="s">
-        <v>250</v>
-      </c>
-      <c r="F35" s="63"/>
-      <c r="G35" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="J35" s="27">
-        <v>1</v>
-      </c>
-      <c r="K35" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L35" s="26" t="s">
-        <v>114</v>
+        <f t="shared" ref="O34" si="4">J34-M34</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
+      <c r="B35" s="119" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" s="95" t="s">
+        <v>255</v>
+      </c>
+      <c r="D35" s="91">
+        <v>43558</v>
+      </c>
+      <c r="E35" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="79"/>
+      <c r="G35" s="93" t="s">
+        <v>331</v>
+      </c>
+      <c r="H35" s="93" t="s">
+        <v>376</v>
+      </c>
+      <c r="I35" s="93" t="s">
+        <v>186</v>
+      </c>
+      <c r="J35" s="94">
+        <v>1</v>
+      </c>
+      <c r="K35" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="95" t="s">
+        <v>378</v>
       </c>
       <c r="M35" s="26"/>
       <c r="N35" s="26"/>
@@ -10398,410 +10428,640 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:15" s="66" customFormat="1" ht="20" hidden="1" customHeight="1">
-      <c r="B36" s="121"/>
+    <row r="36" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
+      <c r="B36" s="117" t="s">
+        <v>338</v>
+      </c>
       <c r="C36" s="26" t="s">
-        <v>170</v>
+        <v>255</v>
       </c>
       <c r="D36" s="33">
-        <v>43559</v>
-      </c>
-      <c r="E36" s="63" t="s">
-        <v>250</v>
-      </c>
-      <c r="F36" s="79"/>
-      <c r="G36" s="93" t="s">
-        <v>363</v>
-      </c>
-      <c r="H36" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="J36" s="94">
-        <v>1</v>
+        <v>43556</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="I36" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="J36" s="26">
+        <v>2</v>
       </c>
       <c r="K36" s="23" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="L36" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="M36" s="26"/>
+        <v>328</v>
+      </c>
+      <c r="M36" s="89"/>
       <c r="N36" s="26"/>
       <c r="O36" s="74">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" ht="20" hidden="1" customHeight="1">
-      <c r="B37" s="140"/>
-      <c r="C37" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="D37" s="141">
-        <v>43556</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="F37" s="142"/>
-      <c r="G37" s="143" t="s">
-        <v>341</v>
-      </c>
-      <c r="H37" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="J37" s="144">
-        <v>0</v>
-      </c>
-      <c r="K37" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
+      <c r="B37" s="117" t="s">
+        <v>217</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D37" s="100">
+        <v>43559</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110" t="s">
+        <v>184</v>
+      </c>
+      <c r="H37" s="110" t="s">
+        <v>362</v>
+      </c>
+      <c r="I37" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="J37" s="110">
+        <v>1</v>
+      </c>
+      <c r="K37" s="102" t="s">
+        <v>278</v>
+      </c>
+      <c r="L37" s="110" t="s">
+        <v>114</v>
+      </c>
+      <c r="M37" s="89"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
+      <c r="B38" s="120"/>
+      <c r="C38" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D38" s="100"/>
+      <c r="E38" s="110" t="s">
+        <v>365</v>
+      </c>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110" t="s">
+        <v>314</v>
+      </c>
+      <c r="H38" s="110" t="s">
+        <v>366</v>
+      </c>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110">
+        <v>1</v>
+      </c>
+      <c r="K38" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="L37" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="116">
+      <c r="L38" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="M38" s="89">
+        <v>1</v>
+      </c>
+      <c r="N38" s="26">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="O38" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="20" customHeight="1">
-      <c r="B38" s="90" t="s">
-        <v>344</v>
-      </c>
-      <c r="C38" s="95" t="s">
-        <v>170</v>
-      </c>
-      <c r="D38" s="91">
-        <v>43556</v>
-      </c>
-      <c r="E38" s="79" t="s">
-        <v>246</v>
-      </c>
-      <c r="F38" s="79" t="s">
-        <v>337</v>
-      </c>
-      <c r="G38" s="93" t="s">
-        <v>335</v>
-      </c>
-      <c r="H38" s="93" t="s">
-        <v>336</v>
-      </c>
-      <c r="I38" s="79" t="s">
-        <v>101</v>
-      </c>
-      <c r="J38" s="94">
-        <v>1</v>
-      </c>
-      <c r="K38" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="L38" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="M38" s="26"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="74">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" ht="20" customHeight="1">
-      <c r="B39" s="62" t="s">
-        <v>340</v>
-      </c>
+    <row r="39" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
+      <c r="B39" s="120"/>
       <c r="C39" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="D39" s="33">
-        <v>43528</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="F39" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="H39" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="J39" s="27">
-        <v>1</v>
-      </c>
-      <c r="K39" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="L39" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="M39" s="89"/>
-      <c r="N39" s="63"/>
+        <v>255</v>
+      </c>
+      <c r="D39" s="100"/>
+      <c r="E39" s="110" t="s">
+        <v>365</v>
+      </c>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110" t="s">
+        <v>314</v>
+      </c>
+      <c r="H39" s="110" t="s">
+        <v>366</v>
+      </c>
+      <c r="I39" s="110"/>
+      <c r="J39" s="110">
+        <v>1</v>
+      </c>
+      <c r="K39" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="L39" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="M39" s="89">
+        <v>1</v>
+      </c>
+      <c r="N39" s="26">
+        <v>4.1900000000000004</v>
+      </c>
       <c r="O39" s="74">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" ht="20" hidden="1" customHeight="1">
-      <c r="B40" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
+      <c r="B40" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="110" t="s">
         <v>170</v>
       </c>
-      <c r="D40" s="33">
-        <v>43535</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="F40" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="G40" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="H40" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="I40" s="63" t="s">
-        <v>229</v>
-      </c>
-      <c r="J40" s="27">
-        <v>2</v>
-      </c>
-      <c r="K40" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="L40" s="95" t="s">
-        <v>370</v>
-      </c>
-      <c r="M40" s="89">
-        <v>2</v>
-      </c>
-      <c r="N40" s="63" t="s">
-        <v>368</v>
-      </c>
+      <c r="D40" s="100">
+        <v>43528</v>
+      </c>
+      <c r="E40" s="80" t="s">
+        <v>251</v>
+      </c>
+      <c r="F40" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="J40" s="103">
+        <v>1</v>
+      </c>
+      <c r="K40" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="L40" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
       <c r="O40" s="74">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" ht="20" customHeight="1">
-      <c r="B41" s="113" t="s">
-        <v>344</v>
-      </c>
-      <c r="C41" s="110" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
+      <c r="B41" s="65"/>
+      <c r="C41" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="D41" s="100">
-        <v>43535</v>
-      </c>
-      <c r="E41" s="110" t="s">
-        <v>246</v>
-      </c>
-      <c r="F41" s="110" t="s">
-        <v>227</v>
-      </c>
-      <c r="G41" s="102" t="s">
-        <v>236</v>
-      </c>
-      <c r="H41" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="I41" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="J41" s="103">
-        <v>1</v>
-      </c>
-      <c r="K41" s="80" t="s">
-        <v>278</v>
+      <c r="D41" s="33">
+        <v>43528</v>
+      </c>
+      <c r="E41" s="63" t="s">
+        <v>250</v>
+      </c>
+      <c r="F41" s="63"/>
+      <c r="G41" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="J41" s="27">
+        <v>1</v>
+      </c>
+      <c r="K41" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="L41" s="26" t="s">
-        <v>345</v>
+        <v>114</v>
       </c>
       <c r="M41" s="26"/>
-      <c r="N41" s="63"/>
+      <c r="N41" s="26"/>
       <c r="O41" s="74">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="20" hidden="1" customHeight="1">
-      <c r="B42" s="115" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" s="38" t="s">
+    <row r="42" spans="2:15" s="66" customFormat="1" ht="20" customHeight="1">
+      <c r="B42" s="121"/>
+      <c r="C42" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="G42" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="H42" s="35" t="s">
+      <c r="D42" s="33">
+        <v>43559</v>
+      </c>
+      <c r="E42" s="63" t="s">
+        <v>250</v>
+      </c>
+      <c r="F42" s="79"/>
+      <c r="G42" s="93" t="s">
+        <v>363</v>
+      </c>
+      <c r="H42" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="J42" s="37">
+      <c r="I42" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="J42" s="94">
+        <v>1</v>
+      </c>
+      <c r="K42" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L42" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" ht="20" customHeight="1">
+      <c r="B43" s="122"/>
+      <c r="C43" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" s="123">
+        <v>43556</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="F43" s="124"/>
+      <c r="G43" s="125" t="s">
+        <v>341</v>
+      </c>
+      <c r="H43" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J43" s="126">
         <v>0</v>
       </c>
-      <c r="K42" s="35" t="s">
+      <c r="K43" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="L42" s="38" t="s">
-        <v>360</v>
-      </c>
-      <c r="M42" s="38"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="116">
+      <c r="L43" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="116">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:15" ht="20" hidden="1" customHeight="1">
-      <c r="B43" s="90"/>
-      <c r="C43" s="95" t="s">
+    <row r="44" spans="2:15" ht="20" customHeight="1">
+      <c r="B44" s="90" t="s">
+        <v>344</v>
+      </c>
+      <c r="C44" s="95" t="s">
         <v>170</v>
       </c>
-      <c r="D43" s="91">
-        <v>43528</v>
-      </c>
-      <c r="E43" s="79" t="s">
-        <v>252</v>
-      </c>
-      <c r="F43" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="G43" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="H43" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="J43" s="94">
-        <v>1</v>
-      </c>
-      <c r="K43" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="L43" s="95" t="s">
-        <v>26</v>
-      </c>
-      <c r="M43" s="26"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="74">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" ht="20" hidden="1" customHeight="1">
-      <c r="B44" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="D44" s="33">
-        <v>43528</v>
-      </c>
-      <c r="E44" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="F44" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="H44" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="I44" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="J44" s="27">
-        <v>1</v>
-      </c>
-      <c r="K44" s="63" t="s">
-        <v>47</v>
+      <c r="D44" s="91">
+        <v>43556</v>
+      </c>
+      <c r="E44" s="79" t="s">
+        <v>246</v>
+      </c>
+      <c r="F44" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="G44" s="93" t="s">
+        <v>335</v>
+      </c>
+      <c r="H44" s="93" t="s">
+        <v>336</v>
+      </c>
+      <c r="I44" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="J44" s="94">
+        <v>1</v>
+      </c>
+      <c r="K44" s="79" t="s">
+        <v>115</v>
       </c>
       <c r="L44" s="26" t="s">
-        <v>370</v>
-      </c>
-      <c r="M44" s="89">
-        <v>1</v>
-      </c>
-      <c r="N44" s="63" t="s">
-        <v>373</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="M44" s="26"/>
+      <c r="N44" s="39"/>
       <c r="O44" s="74">
         <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" ht="20" customHeight="1">
+      <c r="B45" s="62" t="s">
+        <v>340</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" s="33">
+        <v>43528</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="J45" s="27">
+        <v>1</v>
+      </c>
+      <c r="K45" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="L45" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="M45" s="89">
+        <v>1</v>
+      </c>
+      <c r="N45" s="63" t="s">
+        <v>390</v>
+      </c>
+      <c r="O45" s="74">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:15" ht="20" hidden="1" customHeight="1" thickBot="1">
-      <c r="B45" s="138" t="s">
+    <row r="46" spans="2:15" ht="20" customHeight="1">
+      <c r="B46" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" s="33">
+        <v>43535</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="H46" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="I46" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="J46" s="27">
+        <v>2</v>
+      </c>
+      <c r="K46" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="L46" s="95" t="s">
+        <v>370</v>
+      </c>
+      <c r="M46" s="89">
+        <v>2</v>
+      </c>
+      <c r="N46" s="63" t="s">
+        <v>368</v>
+      </c>
+      <c r="O46" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" ht="20" customHeight="1">
+      <c r="B47" s="113" t="s">
+        <v>344</v>
+      </c>
+      <c r="C47" s="110" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" s="100">
+        <v>43535</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>246</v>
+      </c>
+      <c r="F47" s="110" t="s">
+        <v>227</v>
+      </c>
+      <c r="G47" s="102" t="s">
+        <v>236</v>
+      </c>
+      <c r="H47" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="I47" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="J47" s="103">
+        <v>1</v>
+      </c>
+      <c r="K47" s="80" t="s">
+        <v>278</v>
+      </c>
+      <c r="L47" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="M47" s="26"/>
+      <c r="N47" s="63"/>
+      <c r="O47" s="74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" ht="20" customHeight="1">
+      <c r="B48" s="115" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" s="34"/>
+      <c r="E48" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="F48" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="H48" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="37">
+        <v>0</v>
+      </c>
+      <c r="K48" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L48" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="M48" s="38"/>
+      <c r="N48" s="63"/>
+      <c r="O48" s="116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" ht="20" customHeight="1">
+      <c r="B49" s="90"/>
+      <c r="C49" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="91">
+        <v>43528</v>
+      </c>
+      <c r="E49" s="79" t="s">
+        <v>252</v>
+      </c>
+      <c r="F49" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="H49" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="94">
+        <v>1</v>
+      </c>
+      <c r="K49" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="L49" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" s="26"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" ht="20" customHeight="1">
+      <c r="B50" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="33">
+        <v>43528</v>
+      </c>
+      <c r="E50" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="F50" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H50" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="27">
+        <v>1</v>
+      </c>
+      <c r="K50" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="L50" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="M50" s="89">
+        <v>1</v>
+      </c>
+      <c r="N50" s="63" t="s">
+        <v>373</v>
+      </c>
+      <c r="O50" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" ht="20" customHeight="1" thickBot="1">
+      <c r="B51" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="139"/>
-      <c r="D45" s="139"/>
-      <c r="E45" s="139"/>
-      <c r="F45" s="139"/>
-      <c r="G45" s="139"/>
-      <c r="H45" s="139"/>
-      <c r="I45" s="139"/>
-      <c r="J45" s="111">
-        <f>SUM(J3:J44)</f>
-        <v>47</v>
-      </c>
-      <c r="K45" s="114"/>
-      <c r="L45" s="112" t="s">
+      <c r="C51" s="144"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="144"/>
+      <c r="G51" s="144"/>
+      <c r="H51" s="144"/>
+      <c r="I51" s="144"/>
+      <c r="J51" s="111">
+        <f>SUM(J3:J50)</f>
+        <v>55</v>
+      </c>
+      <c r="K51" s="114"/>
+      <c r="L51" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="M45" s="46">
-        <f>SUM(M3:M44)</f>
-        <v>12</v>
-      </c>
-      <c r="N45" s="45"/>
-      <c r="O45" s="76">
-        <f>J45-M45</f>
-        <v>35</v>
+      <c r="M51" s="46">
+        <f>SUM(M3:M50)</f>
+        <v>17</v>
+      </c>
+      <c r="N51" s="45"/>
+      <c r="O51" s="76">
+        <f>J51-M51</f>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:O45" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="本周"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:O51" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="1">
-    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B51:I51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
